--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1026.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1026.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.057440814540923</v>
+        <v>1.283732891082764</v>
       </c>
       <c r="B1">
-        <v>3.633038498710425</v>
+        <v>1.501825571060181</v>
       </c>
       <c r="C1">
-        <v>3.255093325717205</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.368956730991113</v>
+        <v>2.096885204315186</v>
       </c>
       <c r="E1">
-        <v>1.212597355292576</v>
+        <v>0.8715436458587646</v>
       </c>
     </row>
   </sheetData>
